--- a/output/0/tRNA-Thr-AGT-4-1.xlsx
+++ b/output/0/tRNA-Thr-AGT-4-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>27694468</t>
-  </si>
-  <si>
-    <t>27694491</t>
+    <t>27694493</t>
+  </si>
+  <si>
+    <t>27694516</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>27694488</t>
+    <t>27694513</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,88 +38,64 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GTGAGGCTTCGTGGCTTAGC</t>
+    <t>AAAGCGCCTGTCTAGTAAAC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>30% (43)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>27694499</t>
+  </si>
+  <si>
+    <t>27694522</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>27694502</t>
+  </si>
+  <si>
+    <t>GGATCTCCTGTTTACTAGAC</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>27694525</t>
+  </si>
+  <si>
+    <t>GTCTAGTAAACAGGAGATCC</t>
   </si>
   <si>
     <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>57% (48)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>27694493</t>
-  </si>
-  <si>
-    <t>27694516</t>
-  </si>
-  <si>
-    <t>27694513</t>
-  </si>
-  <si>
-    <t>AAAGCGCCTGTCTAGTAAAC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>27694499</t>
-  </si>
-  <si>
-    <t>27694522</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>27694502</t>
-  </si>
-  <si>
-    <t>GGATCTCCTGTTTACTAGAC</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>27694525</t>
-  </si>
-  <si>
-    <t>GTCTAGTAAACAGGAGATCC</t>
   </si>
   <si>
     <t>23% (40)</t>
@@ -197,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -276,13 +252,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -294,10 +270,10 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -326,22 +302,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -353,25 +329,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -385,10 +361,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -397,10 +373,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -412,89 +388,30 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
-        <v>3</v>
-      </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
         <v>3</v>
       </c>
     </row>
